--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200419.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200419.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\chongqing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D949B7-1AA9-43C5-B229-619273FDF82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -399,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9704" uniqueCount="3309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9656" uniqueCount="3308">
   <si>
     <t>序号</t>
   </si>
@@ -10320,10 +10326,6 @@
   </si>
   <si>
     <t>吉木乃县</t>
-  </si>
-  <si>
-    <t>2020/4/119  0:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://wsjkw.cq.gov.cn/ztzl_242/qlzhxxgzbdfyyqfkgz/yqtb/202004/t20200420_7071136.html</t>
@@ -10332,7 +10334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
@@ -10509,6 +10511,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10771,63 +10776,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.53515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="15" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.1796875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.69140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.4609375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.15234375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.921875" style="14" customWidth="1"/>
     <col min="10" max="10" width="11" style="12" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10.69140625" style="14" customWidth="1"/>
     <col min="12" max="13" width="11" style="12" customWidth="1"/>
-    <col min="14" max="14" width="20.08984375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="20.07421875" style="12" customWidth="1"/>
     <col min="15" max="15" width="21" style="12" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="14" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="18.90625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="21.453125" style="12" customWidth="1"/>
-    <col min="22" max="22" width="15.08984375" style="12" customWidth="1"/>
-    <col min="23" max="23" width="9.36328125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="11.81640625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="12" customWidth="1"/>
-    <col min="26" max="26" width="17.7265625" style="13" customWidth="1"/>
-    <col min="27" max="27" width="110.36328125" style="14" customWidth="1"/>
-    <col min="28" max="28" width="50.7265625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="15.453125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" style="12" customWidth="1"/>
-    <col min="31" max="31" width="17.453125" style="12" customWidth="1"/>
-    <col min="32" max="32" width="15.7265625" style="12" customWidth="1"/>
-    <col min="33" max="33" width="11.6328125" style="12" customWidth="1"/>
-    <col min="34" max="34" width="19.08984375" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.453125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.90625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.4609375" style="14" customWidth="1"/>
+    <col min="17" max="17" width="12.4609375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="12.4609375" style="14" customWidth="1"/>
+    <col min="19" max="19" width="12.4609375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="18.921875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="21.4609375" style="12" customWidth="1"/>
+    <col min="22" max="22" width="15.07421875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="9.3828125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="11.84375" style="12" customWidth="1"/>
+    <col min="25" max="25" width="13.15234375" style="12" customWidth="1"/>
+    <col min="26" max="26" width="17.69140625" style="13" customWidth="1"/>
+    <col min="27" max="27" width="110.3828125" style="14" customWidth="1"/>
+    <col min="28" max="28" width="50.69140625" style="14" customWidth="1"/>
+    <col min="29" max="29" width="15.4609375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.07421875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="17.4609375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="15.69140625" style="12" customWidth="1"/>
+    <col min="33" max="33" width="11.61328125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="19.07421875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.921875" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.90625" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.90625" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.90625" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.453125" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.921875" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.921875" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.921875" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.08984375" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.90625" style="12"/>
+    <col min="46" max="46" width="5.07421875" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:46" s="11" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10967,15 +10972,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="16.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>3307</v>
+      <c r="C2" s="18">
+        <v>43940</v>
       </c>
       <c r="D2" s="18">
         <v>43941</v>
@@ -11024,7 +11029,7 @@
       </c>
       <c r="AA2" s="22"/>
       <c r="AB2" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC2" s="21"/>
       <c r="AD2" s="19"/>
@@ -11045,15 +11050,15 @@
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
     </row>
-    <row r="3" spans="1:46" ht="16.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>3307</v>
+      <c r="C3" s="18">
+        <v>43940</v>
       </c>
       <c r="D3" s="18">
         <v>43941</v>
@@ -11098,7 +11103,7 @@
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
@@ -11116,15 +11121,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="16.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>3307</v>
+      <c r="C4" s="18">
+        <v>43940</v>
       </c>
       <c r="D4" s="18">
         <v>43941</v>
@@ -11167,7 +11172,7 @@
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
@@ -11185,15 +11190,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="16.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>3307</v>
+      <c r="C5" s="18">
+        <v>43940</v>
       </c>
       <c r="D5" s="18">
         <v>43941</v>
@@ -11236,7 +11241,7 @@
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -11254,15 +11259,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="16.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>3307</v>
+      <c r="C6" s="18">
+        <v>43940</v>
       </c>
       <c r="D6" s="18">
         <v>43941</v>
@@ -11305,7 +11310,7 @@
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
@@ -11323,15 +11328,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="16.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>3307</v>
+      <c r="C7" s="18">
+        <v>43940</v>
       </c>
       <c r="D7" s="18">
         <v>43941</v>
@@ -11374,7 +11379,7 @@
       </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC7" s="19"/>
       <c r="AD7" s="19"/>
@@ -11392,15 +11397,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="16.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>3307</v>
+      <c r="C8" s="18">
+        <v>43940</v>
       </c>
       <c r="D8" s="18">
         <v>43941</v>
@@ -11443,7 +11448,7 @@
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
@@ -11461,15 +11466,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="16.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>3307</v>
+      <c r="C9" s="18">
+        <v>43940</v>
       </c>
       <c r="D9" s="18">
         <v>43941</v>
@@ -11512,7 +11517,7 @@
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC9" s="19"/>
       <c r="AD9" s="19"/>
@@ -11530,15 +11535,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="16.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>3307</v>
+      <c r="C10" s="18">
+        <v>43940</v>
       </c>
       <c r="D10" s="18">
         <v>43941</v>
@@ -11583,7 +11588,7 @@
       </c>
       <c r="AA10" s="22"/>
       <c r="AB10" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC10" s="19"/>
       <c r="AD10" s="19"/>
@@ -11601,15 +11606,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="16.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>3307</v>
+      <c r="C11" s="18">
+        <v>43940</v>
       </c>
       <c r="D11" s="18">
         <v>43941</v>
@@ -11652,7 +11657,7 @@
       </c>
       <c r="AA11" s="22"/>
       <c r="AB11" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
@@ -11670,15 +11675,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="16.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>3307</v>
+      <c r="C12" s="18">
+        <v>43940</v>
       </c>
       <c r="D12" s="18">
         <v>43941</v>
@@ -11717,7 +11722,7 @@
       </c>
       <c r="AA12" s="22"/>
       <c r="AB12" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
@@ -11735,15 +11740,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="16.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>3307</v>
+      <c r="C13" s="18">
+        <v>43940</v>
       </c>
       <c r="D13" s="18">
         <v>43941</v>
@@ -11786,7 +11791,7 @@
       </c>
       <c r="AA13" s="22"/>
       <c r="AB13" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
@@ -11804,15 +11809,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="16.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>3307</v>
+      <c r="C14" s="18">
+        <v>43940</v>
       </c>
       <c r="D14" s="18">
         <v>43941</v>
@@ -11855,7 +11860,7 @@
       </c>
       <c r="AA14" s="22"/>
       <c r="AB14" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
@@ -11873,15 +11878,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="16.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>3307</v>
+      <c r="C15" s="18">
+        <v>43940</v>
       </c>
       <c r="D15" s="18">
         <v>43941</v>
@@ -11924,7 +11929,7 @@
       </c>
       <c r="AA15" s="22"/>
       <c r="AB15" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
@@ -11942,15 +11947,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="16.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>3307</v>
+      <c r="C16" s="18">
+        <v>43940</v>
       </c>
       <c r="D16" s="18">
         <v>43941</v>
@@ -11993,7 +11998,7 @@
       </c>
       <c r="AA16" s="22"/>
       <c r="AB16" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
@@ -12011,15 +12016,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="16.2">
+    <row r="17" spans="1:35">
       <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>3307</v>
+      <c r="C17" s="18">
+        <v>43940</v>
       </c>
       <c r="D17" s="18">
         <v>43941</v>
@@ -12062,7 +12067,7 @@
       </c>
       <c r="AA17" s="22"/>
       <c r="AB17" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC17" s="19"/>
       <c r="AD17" s="19"/>
@@ -12080,15 +12085,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="16.2">
+    <row r="18" spans="1:35">
       <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>3307</v>
+      <c r="C18" s="18">
+        <v>43940</v>
       </c>
       <c r="D18" s="18">
         <v>43941</v>
@@ -12131,7 +12136,7 @@
       </c>
       <c r="AA18" s="22"/>
       <c r="AB18" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
@@ -12149,15 +12154,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="16.2">
+    <row r="19" spans="1:35">
       <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>3307</v>
+      <c r="C19" s="18">
+        <v>43940</v>
       </c>
       <c r="D19" s="18">
         <v>43941</v>
@@ -12196,7 +12201,7 @@
       </c>
       <c r="AA19" s="22"/>
       <c r="AB19" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
@@ -12214,15 +12219,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="16.2">
+    <row r="20" spans="1:35">
       <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>3307</v>
+      <c r="C20" s="18">
+        <v>43940</v>
       </c>
       <c r="D20" s="18">
         <v>43941</v>
@@ -12265,7 +12270,7 @@
       </c>
       <c r="AA20" s="22"/>
       <c r="AB20" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
@@ -12283,15 +12288,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="16.2">
+    <row r="21" spans="1:35">
       <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>3307</v>
+      <c r="C21" s="18">
+        <v>43940</v>
       </c>
       <c r="D21" s="18">
         <v>43941</v>
@@ -12334,7 +12339,7 @@
       </c>
       <c r="AA21" s="22"/>
       <c r="AB21" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC21" s="19"/>
       <c r="AD21" s="19"/>
@@ -12352,15 +12357,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="16.2">
+    <row r="22" spans="1:35">
       <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>3307</v>
+      <c r="C22" s="18">
+        <v>43940</v>
       </c>
       <c r="D22" s="18">
         <v>43941</v>
@@ -12403,7 +12408,7 @@
       </c>
       <c r="AA22" s="22"/>
       <c r="AB22" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC22" s="19"/>
       <c r="AD22" s="19"/>
@@ -12421,15 +12426,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="16.2">
+    <row r="23" spans="1:35">
       <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>3307</v>
+      <c r="C23" s="18">
+        <v>43940</v>
       </c>
       <c r="D23" s="18">
         <v>43941</v>
@@ -12472,7 +12477,7 @@
       </c>
       <c r="AA23" s="22"/>
       <c r="AB23" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
@@ -12490,15 +12495,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="16.2">
+    <row r="24" spans="1:35">
       <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>3307</v>
+      <c r="C24" s="18">
+        <v>43940</v>
       </c>
       <c r="D24" s="18">
         <v>43941</v>
@@ -12541,7 +12546,7 @@
       </c>
       <c r="AA24" s="22"/>
       <c r="AB24" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
@@ -12559,15 +12564,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="16.2">
+    <row r="25" spans="1:35">
       <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>3307</v>
+      <c r="C25" s="18">
+        <v>43940</v>
       </c>
       <c r="D25" s="18">
         <v>43941</v>
@@ -12610,7 +12615,7 @@
       </c>
       <c r="AA25" s="22"/>
       <c r="AB25" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
@@ -12628,15 +12633,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="16.2">
+    <row r="26" spans="1:35">
       <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>3307</v>
+      <c r="C26" s="18">
+        <v>43940</v>
       </c>
       <c r="D26" s="18">
         <v>43941</v>
@@ -12681,7 +12686,7 @@
       </c>
       <c r="AA26" s="22"/>
       <c r="AB26" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC26" s="19"/>
       <c r="AD26" s="19"/>
@@ -12699,15 +12704,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="16.2">
+    <row r="27" spans="1:35">
       <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>3307</v>
+      <c r="C27" s="18">
+        <v>43940</v>
       </c>
       <c r="D27" s="18">
         <v>43941</v>
@@ -12750,7 +12755,7 @@
       </c>
       <c r="AA27" s="22"/>
       <c r="AB27" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
@@ -12768,15 +12773,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="16.2">
+    <row r="28" spans="1:35">
       <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>3307</v>
+      <c r="C28" s="18">
+        <v>43940</v>
       </c>
       <c r="D28" s="18">
         <v>43941</v>
@@ -12819,7 +12824,7 @@
       </c>
       <c r="AA28" s="22"/>
       <c r="AB28" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
@@ -12837,15 +12842,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="16.2">
+    <row r="29" spans="1:35">
       <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>3307</v>
+      <c r="C29" s="18">
+        <v>43940</v>
       </c>
       <c r="D29" s="18">
         <v>43941</v>
@@ -12888,7 +12893,7 @@
       </c>
       <c r="AA29" s="22"/>
       <c r="AB29" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC29" s="19"/>
       <c r="AD29" s="19"/>
@@ -12906,15 +12911,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="16.2">
+    <row r="30" spans="1:35">
       <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>3307</v>
+      <c r="C30" s="18">
+        <v>43940</v>
       </c>
       <c r="D30" s="18">
         <v>43941</v>
@@ -12957,7 +12962,7 @@
       </c>
       <c r="AA30" s="22"/>
       <c r="AB30" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
@@ -12975,15 +12980,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="16.2">
+    <row r="31" spans="1:35">
       <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>3307</v>
+      <c r="C31" s="18">
+        <v>43940</v>
       </c>
       <c r="D31" s="18">
         <v>43941</v>
@@ -13026,7 +13031,7 @@
       </c>
       <c r="AA31" s="22"/>
       <c r="AB31" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC31" s="19"/>
       <c r="AD31" s="19"/>
@@ -13044,15 +13049,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="16.2">
+    <row r="32" spans="1:35">
       <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>3307</v>
+      <c r="C32" s="18">
+        <v>43940</v>
       </c>
       <c r="D32" s="18">
         <v>43941</v>
@@ -13095,7 +13100,7 @@
       </c>
       <c r="AA32" s="22"/>
       <c r="AB32" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
@@ -13113,15 +13118,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="16.2">
+    <row r="33" spans="1:35">
       <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>3307</v>
+      <c r="C33" s="18">
+        <v>43940</v>
       </c>
       <c r="D33" s="18">
         <v>43941</v>
@@ -13164,7 +13169,7 @@
       </c>
       <c r="AA33" s="22"/>
       <c r="AB33" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC33" s="19"/>
       <c r="AD33" s="19"/>
@@ -13182,15 +13187,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="16.2">
+    <row r="34" spans="1:35">
       <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>3307</v>
+      <c r="C34" s="18">
+        <v>43940</v>
       </c>
       <c r="D34" s="18">
         <v>43941</v>
@@ -13233,7 +13238,7 @@
       </c>
       <c r="AA34" s="22"/>
       <c r="AB34" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
@@ -13251,15 +13256,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="16.2">
+    <row r="35" spans="1:35">
       <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>3307</v>
+      <c r="C35" s="18">
+        <v>43940</v>
       </c>
       <c r="D35" s="18">
         <v>43941</v>
@@ -13302,7 +13307,7 @@
       </c>
       <c r="AA35" s="22"/>
       <c r="AB35" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC35" s="19"/>
       <c r="AD35" s="19"/>
@@ -13320,15 +13325,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="16.2">
+    <row r="36" spans="1:35">
       <c r="A36" s="17">
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>3307</v>
+      <c r="C36" s="18">
+        <v>43940</v>
       </c>
       <c r="D36" s="18">
         <v>43941</v>
@@ -13371,7 +13376,7 @@
       </c>
       <c r="AA36" s="22"/>
       <c r="AB36" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC36" s="19"/>
       <c r="AD36" s="19"/>
@@ -13389,15 +13394,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="16.2">
+    <row r="37" spans="1:35">
       <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>3307</v>
+      <c r="C37" s="18">
+        <v>43940</v>
       </c>
       <c r="D37" s="18">
         <v>43941</v>
@@ -13440,7 +13445,7 @@
       </c>
       <c r="AA37" s="22"/>
       <c r="AB37" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC37" s="19"/>
       <c r="AD37" s="19"/>
@@ -13458,15 +13463,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="16.2">
+    <row r="38" spans="1:35">
       <c r="A38" s="17">
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>3307</v>
+      <c r="C38" s="18">
+        <v>43940</v>
       </c>
       <c r="D38" s="18">
         <v>43941</v>
@@ -13509,7 +13514,7 @@
       </c>
       <c r="AA38" s="22"/>
       <c r="AB38" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC38" s="19"/>
       <c r="AD38" s="19"/>
@@ -13527,15 +13532,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="16.2">
+    <row r="39" spans="1:35">
       <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>3307</v>
+      <c r="C39" s="18">
+        <v>43940</v>
       </c>
       <c r="D39" s="18">
         <v>43941</v>
@@ -13578,7 +13583,7 @@
       </c>
       <c r="AA39" s="22"/>
       <c r="AB39" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC39" s="19"/>
       <c r="AD39" s="19"/>
@@ -13596,15 +13601,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="16.2">
+    <row r="40" spans="1:35">
       <c r="A40" s="17">
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>3307</v>
+      <c r="C40" s="18">
+        <v>43940</v>
       </c>
       <c r="D40" s="18">
         <v>43941</v>
@@ -13647,7 +13652,7 @@
       </c>
       <c r="AA40" s="22"/>
       <c r="AB40" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC40" s="19"/>
       <c r="AD40" s="19"/>
@@ -13665,15 +13670,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="16.2">
+    <row r="41" spans="1:35">
       <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>3307</v>
+      <c r="C41" s="18">
+        <v>43940</v>
       </c>
       <c r="D41" s="18">
         <v>43941</v>
@@ -13716,7 +13721,7 @@
       </c>
       <c r="AA41" s="22"/>
       <c r="AB41" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC41" s="19"/>
       <c r="AD41" s="19"/>
@@ -13734,15 +13739,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="16.2">
+    <row r="42" spans="1:35">
       <c r="A42" s="17">
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>3307</v>
+      <c r="C42" s="18">
+        <v>43940</v>
       </c>
       <c r="D42" s="18">
         <v>43941</v>
@@ -13785,7 +13790,7 @@
       </c>
       <c r="AA42" s="22"/>
       <c r="AB42" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC42" s="19"/>
       <c r="AD42" s="19"/>
@@ -13803,15 +13808,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="16.2">
+    <row r="43" spans="1:35">
       <c r="A43" s="19">
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>3307</v>
+      <c r="C43" s="18">
+        <v>43940</v>
       </c>
       <c r="D43" s="18">
         <v>43941</v>
@@ -13854,7 +13859,7 @@
       </c>
       <c r="AA43" s="22"/>
       <c r="AB43" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC43" s="19"/>
       <c r="AD43" s="19"/>
@@ -13872,15 +13877,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="16.2">
+    <row r="44" spans="1:35">
       <c r="A44" s="17">
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>3307</v>
+      <c r="C44" s="18">
+        <v>43940</v>
       </c>
       <c r="D44" s="18">
         <v>43941</v>
@@ -13926,7 +13931,7 @@
       </c>
       <c r="AA44" s="22"/>
       <c r="AB44" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC44" s="19"/>
       <c r="AD44" s="19"/>
@@ -13944,15 +13949,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="16.2">
+    <row r="45" spans="1:35">
       <c r="A45" s="19">
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>3307</v>
+      <c r="C45" s="18">
+        <v>43940</v>
       </c>
       <c r="D45" s="18">
         <v>43941</v>
@@ -13995,7 +14000,7 @@
       </c>
       <c r="AA45" s="22"/>
       <c r="AB45" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC45" s="19"/>
       <c r="AD45" s="19"/>
@@ -14013,15 +14018,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="16.2">
+    <row r="46" spans="1:35">
       <c r="A46" s="17">
         <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>3307</v>
+      <c r="C46" s="18">
+        <v>43940</v>
       </c>
       <c r="D46" s="18">
         <v>43941</v>
@@ -14064,7 +14069,7 @@
       </c>
       <c r="AA46" s="22"/>
       <c r="AB46" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC46" s="19"/>
       <c r="AD46" s="19"/>
@@ -14082,15 +14087,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="16.2">
+    <row r="47" spans="1:35">
       <c r="A47" s="19">
         <v>46</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>3307</v>
+      <c r="C47" s="18">
+        <v>43940</v>
       </c>
       <c r="D47" s="18">
         <v>43941</v>
@@ -14133,7 +14138,7 @@
       </c>
       <c r="AA47" s="22"/>
       <c r="AB47" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC47" s="19"/>
       <c r="AD47" s="19"/>
@@ -14151,15 +14156,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="16.2">
+    <row r="48" spans="1:35">
       <c r="A48" s="19">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>3307</v>
+        <v>53</v>
+      </c>
+      <c r="C48" s="18">
+        <v>43940</v>
       </c>
       <c r="D48" s="18">
         <v>43941</v>
@@ -14200,7 +14205,7 @@
       </c>
       <c r="AA48" s="22"/>
       <c r="AB48" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC48" s="19"/>
       <c r="AD48" s="19"/>
@@ -14218,15 +14223,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="16.2">
+    <row r="49" spans="1:35">
       <c r="A49" s="19">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>3307</v>
+        <v>53</v>
+      </c>
+      <c r="C49" s="18">
+        <v>43940</v>
       </c>
       <c r="D49" s="18">
         <v>43941</v>
@@ -14269,7 +14274,7 @@
       </c>
       <c r="AA49" s="22"/>
       <c r="AB49" s="23" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AC49" s="19"/>
       <c r="AD49" s="19"/>
@@ -14290,38 +14295,38 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R44 I50:X1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R44 I50:X1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG50:AG1048576 AK2:AK1048576 AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG50:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B50:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B50:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50:H1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT($G50)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F50)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI50:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI50:AI1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1"/>
-    <hyperlink ref="AB3:AB49" r:id="rId2" display="http://wsjkw.cq.gov.cn/ztzl_242/qlzhxxgzbdfyyqfkgz/yqtb/202004/t20200420_7071136.html"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB3:AB49" r:id="rId2" display="http://wsjkw.cq.gov.cn/ztzl_242/qlzhxxgzbdfyyqfkgz/yqtb/202004/t20200420_7071136.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -14334,7 +14339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -14342,10 +14347,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
